--- a/KiCad/Wireless_Motion/bom/BOM.xlsx
+++ b/KiCad/Wireless_Motion/bom/BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alper\Documents\PlatformIO\Projects\WirelessMotionSensor\KiCad\Wireless_Motion\bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25EF924C-FC7A-48F0-9514-1DAA425EAA98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01432BA6-CCDD-470F-B23E-28B56FEA890D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -539,7 +539,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="8" formatCode="&quot;€&quot;\ #,##0.00;[Red]\-&quot;€&quot;\ #,##0.00"/>
-    <numFmt numFmtId="167" formatCode="&quot;€&quot;\ #,##0.000"/>
+    <numFmt numFmtId="164" formatCode="&quot;€&quot;\ #,##0.000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -645,32 +645,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="2" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="3" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyAlignment="1">
@@ -716,22 +716,22 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="&quot;€&quot;\ #,##0.000"/>
+      <numFmt numFmtId="164" formatCode="&quot;€&quot;\ #,##0.000"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="&quot;€&quot;\ #,##0.000"/>
+      <numFmt numFmtId="164" formatCode="&quot;€&quot;\ #,##0.000"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="&quot;€&quot;\ #,##0.000"/>
+      <numFmt numFmtId="164" formatCode="&quot;€&quot;\ #,##0.000"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="&quot;€&quot;\ #,##0.000"/>
+      <numFmt numFmtId="164" formatCode="&quot;€&quot;\ #,##0.000"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1066,20 +1066,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAA1CACC-AFB6-49F1-A3E7-CAF785C4D0E3}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:L56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.42578125" customWidth="1"/>
+    <col min="2" max="2" width="26" customWidth="1"/>
     <col min="3" max="3" width="28.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.28515625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="20.140625" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" customWidth="1"/>
     <col min="7" max="7" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.5703125" customWidth="1"/>
   </cols>
@@ -2305,10 +2308,11 @@
     <mergeCell ref="A49:G49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="56" orientation="portrait" r:id="rId1"/>
   <tableParts count="3">
-    <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
